--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\economic applications\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or204\PycharmProjects\EconomicsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4F85C5-6B96-45CF-9E8D-B07978DE3C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA4FE4-CD89-4CDA-8EE0-65423524EF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -480,12 +478,6 @@
     <t>הפקדות</t>
   </si>
   <si>
-    <t xml:space="preserve">גלוקמן </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אברג'ל </t>
-  </si>
-  <si>
     <t>אירית</t>
   </si>
   <si>
@@ -889,6 +881,12 @@
   </si>
   <si>
     <t>לעובדים בעלי וותק פחות מ-5 שנים במקרה של התפטרות לשחרר קופה, שאר המקרים על פי החוק</t>
+  </si>
+  <si>
+    <t>גלוקמן</t>
+  </si>
+  <si>
+    <t>אברג'ל</t>
   </si>
 </sst>
 </file>
@@ -896,8 +894,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="26">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="General_)"/>
@@ -927,21 +925,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1426,7 +1424,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1434,7 +1432,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1442,7 +1440,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1451,7 +1449,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1460,7 +1458,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1469,7 +1467,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1477,7 +1475,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1486,7 +1484,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1495,7 +1493,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1504,7 +1502,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1512,7 +1510,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1520,7 +1518,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1528,7 +1526,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1537,7 +1535,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1545,7 +1543,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="major"/>
@@ -1554,7 +1552,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1562,7 +1560,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1583,7 +1581,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2540,16 +2538,16 @@
     <xf numFmtId="0" fontId="35" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="77" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="77" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2645,7 +2643,7 @@
     <xf numFmtId="0" fontId="88" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2919,14 +2917,14 @@
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3550,7 +3548,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3873,22 +3871,22 @@
   <dimension ref="A2:Q152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q59" sqref="Q59"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.296875" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="45">
+    <row r="2" spans="1:16" ht="41.4">
       <c r="B2" t="s">
         <v>52</v>
       </c>
@@ -3911,7 +3909,7 @@
         <v>143</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>145</v>
@@ -3920,16 +3918,16 @@
         <v>146</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
@@ -3940,7 +3938,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>147</v>
+        <v>282</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>1</v>
@@ -3980,7 +3978,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>148</v>
+        <v>283</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>4</v>
@@ -4011,7 +4009,7 @@
       </c>
       <c r="P4" s="29"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="14.4">
       <c r="A5" s="21">
         <f t="shared" ref="A5:A68" si="0">A4+1</f>
         <v>3</v>
@@ -4049,7 +4047,7 @@
         <v>500000</v>
       </c>
       <c r="O5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P5" s="29"/>
     </row>
@@ -4059,7 +4057,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>15</v>
@@ -4089,7 +4087,7 @@
       </c>
       <c r="P6" s="29"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="14.4">
       <c r="A7" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4098,7 +4096,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>1</v>
@@ -4131,11 +4129,11 @@
         <v>144</v>
       </c>
       <c r="O7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P7" s="29"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="14.4">
       <c r="A8" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4144,7 +4142,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>1</v>
@@ -4176,7 +4174,7 @@
         <v>30000</v>
       </c>
       <c r="O8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P8" s="29"/>
     </row>
@@ -4186,7 +4184,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>40</v>
@@ -4219,7 +4217,7 @@
       <c r="M9" s="17"/>
       <c r="P9" s="29"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="14.4">
       <c r="A10" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4228,7 +4226,7 @@
         <v>140</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>4</v>
@@ -4260,7 +4258,7 @@
         <v>25000</v>
       </c>
       <c r="O10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P10" s="29"/>
     </row>
@@ -4270,10 +4268,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>4</v>
@@ -4355,7 +4353,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>1</v>
@@ -4389,10 +4387,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>1</v>
@@ -4465,7 +4463,7 @@
       <c r="M15" s="17"/>
       <c r="P15" s="29"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="14.4">
       <c r="A16" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4474,7 +4472,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>4</v>
@@ -4503,7 +4501,7 @@
         <v>175000</v>
       </c>
       <c r="O16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P16" s="29"/>
     </row>
@@ -4516,7 +4514,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>1</v>
@@ -4636,10 +4634,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>4</v>
@@ -4677,10 +4675,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>1</v>
@@ -4712,7 +4710,7 @@
       <c r="M21" s="17"/>
       <c r="P21" s="29"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" ht="14.4">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4750,7 +4748,7 @@
         <v>96000</v>
       </c>
       <c r="O22" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P22" s="29"/>
     </row>
@@ -4763,7 +4761,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>1</v>
@@ -4801,7 +4799,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>4</v>
@@ -4830,7 +4828,7 @@
       <c r="M24" s="17"/>
       <c r="P24" s="29"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" ht="14.4">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4839,7 +4837,7 @@
         <v>129</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>1</v>
@@ -4872,7 +4870,7 @@
         <v>230000</v>
       </c>
       <c r="O25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P25" s="29"/>
     </row>
@@ -4923,7 +4921,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>1</v>
@@ -4958,10 +4956,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>4</v>
@@ -5062,7 +5060,7 @@
       <c r="M30" s="17"/>
       <c r="P30" s="29"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" ht="14.4">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5071,7 +5069,7 @@
         <v>94</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>1</v>
@@ -5102,7 +5100,7 @@
       </c>
       <c r="M31" s="17"/>
       <c r="O31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P31" s="29"/>
     </row>
@@ -5115,7 +5113,7 @@
         <v>20</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>1</v>
@@ -5153,7 +5151,7 @@
         <v>81</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>4</v>
@@ -5191,7 +5189,7 @@
         <v>117</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>1</v>
@@ -5256,10 +5254,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>1</v>
@@ -5288,13 +5286,13 @@
       <c r="M36" s="17"/>
       <c r="P36" s="29"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" ht="14.4">
       <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>16</v>
@@ -5328,7 +5326,7 @@
       </c>
       <c r="M37" s="17"/>
       <c r="O37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P37" s="29"/>
     </row>
@@ -5341,7 +5339,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>1</v>
@@ -5484,13 +5482,13 @@
       <c r="M41" s="17"/>
       <c r="P41" s="29"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" ht="14.4">
       <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>74</v>
@@ -5524,7 +5522,7 @@
       </c>
       <c r="M42" s="17"/>
       <c r="O42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P42" s="29"/>
     </row>
@@ -5537,7 +5535,7 @@
         <v>59</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>4</v>
@@ -5613,7 +5611,7 @@
         <v>121</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>4</v>
@@ -5651,7 +5649,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>1</v>
@@ -5689,7 +5687,7 @@
         <v>76</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>4</v>
@@ -5724,7 +5722,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>58</v>
@@ -5758,10 +5756,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>4</v>
@@ -5828,7 +5826,7 @@
       <c r="M50" s="17"/>
       <c r="P50" s="29"/>
     </row>
-    <row r="51" spans="1:16" ht="30">
+    <row r="51" spans="1:16" ht="28.2">
       <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -5837,7 +5835,7 @@
         <v>124</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>1</v>
@@ -5873,7 +5871,7 @@
         <v>30000</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="P51" s="29"/>
     </row>
@@ -5886,7 +5884,7 @@
         <v>106</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>1</v>
@@ -5915,7 +5913,7 @@
       <c r="M52" s="17"/>
       <c r="P52" s="29"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" ht="14.4">
       <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -5955,7 +5953,7 @@
       </c>
       <c r="M53" s="17"/>
       <c r="O53" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P53" s="29"/>
     </row>
@@ -5968,7 +5966,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>1</v>
@@ -5999,20 +5997,20 @@
       </c>
       <c r="M54" s="17"/>
       <c r="O54" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P54" s="29"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" ht="14.4">
       <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>1</v>
@@ -6043,7 +6041,7 @@
       </c>
       <c r="M55" s="17"/>
       <c r="O55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P55" s="29"/>
     </row>
@@ -6056,7 +6054,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>1</v>
@@ -6087,7 +6085,7 @@
       </c>
       <c r="M56" s="17"/>
       <c r="O56" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P56" s="29"/>
     </row>
@@ -6100,7 +6098,7 @@
         <v>36</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>1</v>
@@ -6131,7 +6129,7 @@
       </c>
       <c r="M57" s="17"/>
       <c r="O57" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P57" s="29"/>
     </row>
@@ -6171,7 +6169,7 @@
       </c>
       <c r="M58" s="17"/>
       <c r="O58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P58" s="29"/>
     </row>
@@ -6184,7 +6182,7 @@
         <v>97</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>1</v>
@@ -6215,11 +6213,11 @@
       </c>
       <c r="M59" s="17"/>
       <c r="O59" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P59" s="29"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" ht="14.4">
       <c r="A60" s="21">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6228,7 +6226,7 @@
         <v>113</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D60" s="14" t="s">
         <v>4</v>
@@ -6259,7 +6257,7 @@
       </c>
       <c r="M60" s="17"/>
       <c r="O60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P60" s="29"/>
     </row>
@@ -6269,10 +6267,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>4</v>
@@ -6303,7 +6301,7 @@
       </c>
       <c r="M61" s="17"/>
       <c r="O61" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P61" s="29"/>
     </row>
@@ -6313,10 +6311,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>4</v>
@@ -6347,11 +6345,11 @@
       </c>
       <c r="M62" s="17"/>
       <c r="O62" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P62" s="29"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" ht="14.4">
       <c r="A63" s="21">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6392,7 +6390,7 @@
         <v>20000</v>
       </c>
       <c r="O63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P63" s="29"/>
     </row>
@@ -6405,7 +6403,7 @@
         <v>108</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D64" s="14" t="s">
         <v>1</v>
@@ -6436,7 +6434,7 @@
       </c>
       <c r="M64" s="17"/>
       <c r="O64" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P64" s="29"/>
     </row>
@@ -6480,7 +6478,7 @@
       </c>
       <c r="M65" s="17"/>
       <c r="O65" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P65" s="29"/>
     </row>
@@ -6520,11 +6518,11 @@
       </c>
       <c r="M66" s="17"/>
       <c r="O66" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P66" s="29"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" ht="14.4">
       <c r="A67" s="21">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6565,7 +6563,7 @@
         <v>50000</v>
       </c>
       <c r="O67" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P67" s="29"/>
     </row>
@@ -6578,7 +6576,7 @@
         <v>125</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>4</v>
@@ -6609,7 +6607,7 @@
       </c>
       <c r="M68" s="17"/>
       <c r="O68" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P68" s="29"/>
     </row>
@@ -6622,7 +6620,7 @@
         <v>92</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>4</v>
@@ -6649,7 +6647,7 @@
       </c>
       <c r="M69" s="17"/>
       <c r="O69" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P69" s="29"/>
     </row>
@@ -6693,7 +6691,7 @@
       </c>
       <c r="M70" s="17"/>
       <c r="O70" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P70" s="29"/>
     </row>
@@ -6706,7 +6704,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>4</v>
@@ -6733,11 +6731,11 @@
       </c>
       <c r="M71" s="17"/>
       <c r="O71" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P71" s="29"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" ht="14.4">
       <c r="A72" s="21">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6777,7 +6775,7 @@
       </c>
       <c r="M72" s="17"/>
       <c r="O72" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P72" s="29"/>
     </row>
@@ -6825,7 +6823,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>115</v>
@@ -6859,10 +6857,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>4</v>
@@ -6900,7 +6898,7 @@
         <v>44</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>4</v>
@@ -6968,7 +6966,7 @@
         <v>80</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>1</v>
@@ -7002,7 +7000,7 @@
         <v>42</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>4</v>
@@ -7031,7 +7029,7 @@
       <c r="M79" s="17"/>
       <c r="P79" s="29"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" ht="14.4">
       <c r="A80" s="21">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -7040,7 +7038,7 @@
         <v>138</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>4</v>
@@ -7071,7 +7069,7 @@
       </c>
       <c r="M80" s="17"/>
       <c r="O80" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P80" s="29"/>
     </row>
@@ -7081,7 +7079,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>67</v>
@@ -7160,7 +7158,7 @@
         <v>28</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>4</v>
@@ -7227,7 +7225,7 @@
       <c r="M84" s="17"/>
       <c r="P84" s="29"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" ht="14.4">
       <c r="A85" s="21">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -7269,7 +7267,7 @@
         <v>40000</v>
       </c>
       <c r="O85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P85" s="29"/>
     </row>
@@ -7282,7 +7280,7 @@
         <v>129</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>1</v>
@@ -7320,7 +7318,7 @@
         <v>111</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>4</v>
@@ -7358,7 +7356,7 @@
         <v>35</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>4</v>
@@ -7434,7 +7432,7 @@
         <v>32</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D90" s="14" t="s">
         <v>4</v>
@@ -7463,7 +7461,7 @@
       <c r="M90" s="17"/>
       <c r="P90" s="29"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" ht="14.4">
       <c r="A91" s="21">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -7472,7 +7470,7 @@
         <v>20</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D91" s="14" t="s">
         <v>1</v>
@@ -7501,7 +7499,7 @@
         <v>280000</v>
       </c>
       <c r="O91" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P91" s="29"/>
     </row>
@@ -7586,7 +7584,7 @@
         <v>65</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D94" s="14" t="s">
         <v>1</v>
@@ -7734,7 +7732,7 @@
         <v>131</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D98" s="14" t="s">
         <v>1</v>
@@ -7841,10 +7839,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D101" s="14" t="s">
         <v>4</v>
@@ -7878,7 +7876,7 @@
         <v>102</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D102" s="14" t="s">
         <v>1</v>
@@ -7916,7 +7914,7 @@
         <v>133</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>4</v>
@@ -7951,10 +7949,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D104" s="14" t="s">
         <v>1</v>
@@ -7992,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D105" s="14" t="s">
         <v>1</v>
@@ -8030,7 +8028,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D106" s="14" t="s">
         <v>1</v>
@@ -8106,7 +8104,7 @@
         <v>95</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>4</v>
@@ -8141,7 +8139,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C109" s="15" t="s">
         <v>98</v>
@@ -8182,7 +8180,7 @@
         <v>24</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>4</v>
@@ -8258,7 +8256,7 @@
         <v>60</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>4</v>
@@ -8293,7 +8291,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C113" s="15" t="s">
         <v>74</v>
@@ -8364,7 +8362,7 @@
         <v>34</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>1</v>
@@ -8393,7 +8391,7 @@
       <c r="M115" s="17"/>
       <c r="P115" s="29"/>
     </row>
-    <row r="116" spans="1:17" s="8" customFormat="1">
+    <row r="116" spans="1:17" s="8" customFormat="1" ht="14.4">
       <c r="A116" s="21">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -8432,7 +8430,7 @@
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P116" s="29"/>
       <c r="Q116"/>
@@ -8443,7 +8441,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C117" s="15" t="s">
         <v>33</v>
@@ -8480,7 +8478,7 @@
         <v>85</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>4</v>
@@ -8518,7 +8516,7 @@
         <v>84</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>4</v>
@@ -8549,7 +8547,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>141</v>
@@ -8620,7 +8618,7 @@
         <v>79</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>1</v>
@@ -8655,7 +8653,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>47</v>
@@ -8727,10 +8725,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>1</v>
@@ -8768,7 +8766,7 @@
         <v>48</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D126" s="14" t="s">
         <v>1</v>
@@ -8806,7 +8804,7 @@
         <v>46</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D127" s="14" t="s">
         <v>4</v>
@@ -8907,7 +8905,7 @@
         <v>20000</v>
       </c>
       <c r="O129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P129" s="29"/>
     </row>
@@ -8920,7 +8918,7 @@
         <v>118</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>4</v>
@@ -8949,7 +8947,7 @@
         <v>15000</v>
       </c>
       <c r="O130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P130" s="29"/>
     </row>
@@ -8993,10 +8991,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D132" s="18" t="s">
         <v>4</v>
@@ -9068,7 +9066,7 @@
         <v>50</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D134" s="18" t="s">
         <v>4</v>
@@ -9102,7 +9100,7 @@
         <v>117</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D135" s="18" t="s">
         <v>1</v>
@@ -9174,7 +9172,7 @@
         <v>93</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D137" s="18" t="s">
         <v>4</v>
@@ -9276,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>1</v>
@@ -9314,7 +9312,7 @@
         <v>107</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D141" s="18" t="s">
         <v>1</v>
@@ -9352,7 +9350,7 @@
         <v>23</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>4</v>
@@ -9383,7 +9381,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C143" s="19" t="s">
         <v>72</v>
@@ -9415,7 +9413,7 @@
         <v>10000</v>
       </c>
       <c r="O143" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P143" s="29"/>
     </row>
@@ -9425,10 +9423,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>1</v>
@@ -9462,7 +9460,7 @@
         <v>31</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D145" s="18" t="s">
         <v>4</v>
@@ -9496,7 +9494,7 @@
         <v>69</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>1</v>
@@ -9531,10 +9529,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>4</v>
@@ -9563,7 +9561,7 @@
         <v>6000</v>
       </c>
       <c r="O147" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P147" s="29"/>
     </row>
@@ -9609,7 +9607,7 @@
         <v>30</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>1</v>
@@ -9642,7 +9640,7 @@
         <v>128</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D150" s="18" t="s">
         <v>1</v>
@@ -9672,10 +9670,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D151" s="18" t="s">
         <v>4</v>
@@ -9708,7 +9706,7 @@
         <v>131</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>4</v>
@@ -9747,59 +9745,59 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="45">
+    <row r="2" spans="1:13" ht="27.6">
       <c r="A2" s="24"/>
       <c r="B2" s="24" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2" s="24"/>
       <c r="G2" s="24"/>
       <c r="H2" s="24"/>
       <c r="I2" s="24"/>
       <c r="J2" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="M2" s="25" t="s">
         <v>279</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="24" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G3" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
       <c r="J3" s="24"/>
     </row>
-    <row r="4" spans="1:13" ht="30">
+    <row r="4" spans="1:13" ht="27.6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9807,7 +9805,7 @@
         <v>1.8146499999999999E-2</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F4" s="28">
         <v>7.0000000000000007E-2</v>
@@ -9823,10 +9821,10 @@
         <v>0.03</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="27.6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9834,7 +9832,7 @@
         <v>1.98745E-2</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F5" s="28">
         <v>0.05</v>
@@ -9848,7 +9846,7 @@
       </c>
       <c r="J5" s="23"/>
       <c r="M5" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -9859,7 +9857,7 @@
         <v>2.1090000000000001E-2</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F6" s="28">
         <v>0.04</v>
@@ -9880,7 +9878,7 @@
         <v>2.2095500000000001E-2</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F7" s="28">
         <v>0.03</v>
@@ -9901,7 +9899,7 @@
         <v>2.3014999999999997E-2</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F8" s="28">
         <v>0.02</v>
@@ -9922,7 +9920,7 @@
         <v>2.3857999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30">
+    <row r="10" spans="1:13" ht="27.6">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9933,7 +9931,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="J10" s="25" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10283,7 +10281,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or204\PycharmProjects\EconomicsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCA4FE4-CD89-4CDA-8EE0-65423524EF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E3DA6D-12EB-4FFA-9F8C-8A2EDC98A53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3871,7 +3871,7 @@
   <dimension ref="A2:Q152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
